--- a/revref_account.xlsx
+++ b/revref_account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB1932F-359F-4DD0-B795-BD35A5A06963}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665DC014-50E7-4B53-8247-076A54F48E5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7230" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7230" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
   <si>
     <t>header1</t>
   </si>
@@ -78,19 +78,6 @@
   <si>
     <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、［プロファイル］を選択し、［プロファイルを編集する］をクリックします</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodle 教職員向け逆引きガイド _コース設定</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ギャクビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>アカウント</t>
@@ -115,10 +102,6 @@
   <si>
     <t>ブラウザを起動し、以下の URL にアクセスします
 　https://moodle.vle.hiroshima-u.ac.jp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン画面が表示されたら、［広大 ID でログイン］をクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -203,9 +186,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>学生としてコースを試してみたい：クラスアカウント</t>
-  </si>
-  <si>
     <t>学生としてコースを試してみたい：ローカルID</t>
   </si>
   <si>
@@ -393,6 +373,314 @@
   <si>
     <t>表示したい言語を選択します
 デフォルトでは、日本語（ja）になっているので、English(en)を選択します</t>
+  </si>
+  <si>
+    <t>広大moodle 教職員向け逆引きガイド _アカウント</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ギャクビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>架空の学生アカウントを作成してそれをコースに学生として登録し、教師として使っているのとは別のブラウザでログインして試すというのを推奨しています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生としてコースを試してみたい：クラスアカウント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;学生としてコースを試す方法&lt;/h3&gt;</t>
+    <rPh sb="15" eb="17">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;クラスアカウントの作成&lt;/h3&gt;</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;クラスアカウントでのログイン&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>架空の学生アカウントは、以下の2種類のアカウントで作成することができます。
+用途に応じて作成するアカウントを決めてください。
+ &lt;table border="1"&gt;
+    &lt;tr&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;&lt;/th&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;作成方法&lt;/th&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;反映時間&lt;/th&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;Microsoft 365の利用権限&lt;/th&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;クラスアカウント&lt;/th&gt;
+      &lt;td&gt;メディアセンターに申請&lt;/td&gt;
+      &lt;td&gt;最大1時間&lt;/td&gt;
+      &lt;td&gt;あり&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;ローカルアカウント&lt;/th&gt;
+      &lt;td&gt;moodle上で作成&lt;/td&gt;
+      &lt;td&gt;即時&lt;/td&gt;
+      &lt;td&gt;なし&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/table&gt;</t>
+    <rPh sb="16" eb="18">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="154" eb="158">
+      <t>サクセイホウホウ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="423" eb="424">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="425" eb="427">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="443" eb="445">
+      <t>ソクジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここでは&lt;u&gt;&lt;b&gt;クラスアカウント&lt;/b&gt;&lt;/u&gt;の方法を説明します。
+Stream動画の視聴やTeams連携を確認したい場合には、Microsoft 365の利用権限も必要です。その場合、クラスアカウントで作成してください。
+Microsoft 365の利用権限が必要ない場合は、自身で手軽に作成できる&lt;a href="p3.html"&gt;ローカルアカウント&lt;/a&gt;をおすすめします。</t>
+    <rPh sb="27" eb="29">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>テガル</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここでは&lt;u&gt;&lt;b&gt;ローカルアカウント&lt;/b&gt;&lt;/u&gt;の方法を説明します。
+Stream動画の視聴やTeams連携を確認したい場合には、Microsoft 365の利用権限も必要です。その場合、&lt;a href="p2.html"&gt;クラスアカウント&lt;/a&gt;で作成してください。</t>
+    <rPh sb="28" eb="30">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メディアセンターのホームページを参照し、クラスアカウントを作成してください
+&lt;a href="https://www.media.hiroshima-u.ac.jp/services/reg/imcaccount-staff/imcaccount-class-guest/"&gt;クラスアカウントの申請方法&lt;/a&gt;</t>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面が表示されたら、「広大 ID でログイン」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面が表示されたら、「クラスアカウントでログイン」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面が表示されたら、「ローカルアカウントでログイン」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※普段使っているブラウザですと、Microsoft 365のログイン情報が残っていてログインができない場合があります
+ログインができない場合は、別のブラウザ（Microsoft Edgeを使用している場合は、Firefoxを使用するなど）やシークレットモードを使用してお試しください</t>
+    <rPh sb="1" eb="3">
+      <t>フダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ローカルアカウントの作成&lt;/h3&gt;</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上のユーザアイコンの右に表示されている「v」をクリックし、「プレファレンス」を選択します</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ローカルアカウントの作成 」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 「その他」の中にある「ローカルアカウントの管理」をクリックします</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「送信」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> コースを開き、コース名下の「参加者」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;アカウントをコースに登録&lt;/3&gt;</t>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ユーザを登録する」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 必要事項を記入します
+※「メールアドレス」と「初期メールアドレス」ですが、架空の学生アカウントの場合は、適当なアドレス（不達のものでも良い）を設定を推奨しています。普段使用しているメールアドレスを使用するとご自身のアカウントと混同される可能性があります。</t>
+    <rPh sb="75" eb="77">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>フダン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリックしたユーザが白抜きで表示されたら、ロールが学生になっていることを確認して「ユーザを登録する」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「検索」をクリックし、作成したアカウントのメールアドレスや姓名の一部を記入します
+候補が表示されるので、作成したアカウントを選択します</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -862,7 +1150,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -875,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -891,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -942,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -958,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -968,25 +1258,25 @@
     <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -996,43 +1286,43 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1041,37 +1331,37 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1081,19 +1371,19 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1104,25 +1394,25 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -1143,7 +1433,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1164,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1180,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1194,32 +1484,32 @@
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1279,10 +1569,177 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1DD6A4-06AC-44B0-BEDC-D0D5248AC0DA}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="297" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="21" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="21" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="20"/>
+      <c r="B23" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE2F81F-39E4-41CF-B8C0-34CAC6EBE269}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1302,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1318,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1329,172 +1786,115 @@
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
+    <row r="7" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="24"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="297" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
+      <c r="B10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
+      <c r="B12" s="22" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
+      <c r="B13" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE2F81F-39E4-41CF-B8C0-34CAC6EBE269}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B16" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B22" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B26" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="22" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1528,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1544,7 +1944,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1621,7 +2021,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1641,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1657,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1671,7 +2071,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1679,41 +2079,41 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1780,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1796,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1810,7 +2210,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -1818,19 +2218,19 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="20"/>
       <c r="B9" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="19"/>
@@ -1906,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1922,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1936,19 +2336,19 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2025,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2041,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2130,33 +2530,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2405,26 +2778,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2441,4 +2822,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/revref_account.xlsx
+++ b/revref_account.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665DC014-50E7-4B53-8247-076A54F48E5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E7203-98C2-4BD5-83A0-AC4F0DBD458A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7230" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7230" activeTab="9" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
     <sheet name="p1" sheetId="12" r:id="rId2"/>
     <sheet name="p2" sheetId="10" r:id="rId3"/>
     <sheet name="p3" sheetId="11" r:id="rId4"/>
-    <sheet name="p4" sheetId="5" r:id="rId5"/>
-    <sheet name="p5" sheetId="14" r:id="rId6"/>
-    <sheet name="p6" sheetId="15" r:id="rId7"/>
-    <sheet name="p7" sheetId="13" r:id="rId8"/>
-    <sheet name="p90" sheetId="9" r:id="rId9"/>
-    <sheet name="p91" sheetId="16" r:id="rId10"/>
+    <sheet name="p4" sheetId="14" r:id="rId5"/>
+    <sheet name="p5" sheetId="15" r:id="rId6"/>
+    <sheet name="p6" sheetId="13" r:id="rId7"/>
+    <sheet name="p7" sheetId="5" r:id="rId8"/>
+    <sheet name="p10" sheetId="9" r:id="rId9"/>
+    <sheet name="p12" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
   <si>
     <t>header1</t>
   </si>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、［プロファイル］を選択し、［プロファイルを編集する］をクリックします</t>
@@ -1151,7 +1147,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1165,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1181,18 +1177,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
@@ -1211,9 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFE3EB5-E328-454E-A48E-CF36701523AC}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1232,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1248,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1258,25 +1250,25 @@
     <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1286,43 +1278,43 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1331,37 +1323,37 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1371,19 +1363,19 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1394,25 +1386,25 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -1454,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1470,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1484,32 +1476,32 @@
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1571,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1DD6A4-06AC-44B0-BEDC-D0D5248AC0DA}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1590,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1606,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1620,7 +1612,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1628,7 +1620,7 @@
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1636,7 +1628,7 @@
     <row r="9" spans="1:4" ht="297" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1644,7 +1636,7 @@
     <row r="10" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1653,13 +1645,13 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1667,52 +1659,52 @@
     </row>
     <row r="15" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="21" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="21" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
       <c r="B23" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -1759,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1775,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1789,7 +1781,7 @@
     <row r="7" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="6"/>
@@ -1797,7 +1789,7 @@
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1805,7 +1797,7 @@
     <row r="9" spans="1:4" ht="297" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1813,7 +1805,7 @@
     <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -1824,76 +1816,76 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B22" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B26" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1904,6 +1896,390 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C54B6A-8DDB-494D-86F5-60AE2D746D02}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229C7B3C-1C05-42FC-AC85-5AFE77557E96}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCD9629-DFC6-4D62-97E7-781C475813CE}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -1928,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1944,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1966,390 +2342,6 @@
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C54B6A-8DDB-494D-86F5-60AE2D746D02}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229C7B3C-1C05-42FC-AC85-5AFE77557E96}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCD9629-DFC6-4D62-97E7-781C475813CE}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -2425,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2441,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2455,7 +2447,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
@@ -2530,6 +2522,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2778,24 +2788,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2806,6 +2798,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2824,17 +2827,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/revref_account.xlsx
+++ b/revref_account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E7203-98C2-4BD5-83A0-AC4F0DBD458A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C9E84F-D6A9-492C-BB99-BFDCA17D7504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7230" activeTab="9" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7230" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>header1</t>
   </si>
@@ -480,56 +480,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ここでは&lt;u&gt;&lt;b&gt;クラスアカウント&lt;/b&gt;&lt;/u&gt;の方法を説明します。
-Stream動画の視聴やTeams連携を確認したい場合には、Microsoft 365の利用権限も必要です。その場合、クラスアカウントで作成してください。
-Microsoft 365の利用権限が必要ない場合は、自身で手軽に作成できる&lt;a href="p3.html"&gt;ローカルアカウント&lt;/a&gt;をおすすめします。</t>
-    <rPh sb="27" eb="29">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>テガル</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ここでは&lt;u&gt;&lt;b&gt;ローカルアカウント&lt;/b&gt;&lt;/u&gt;の方法を説明します。
-Stream動画の視聴やTeams連携を確認したい場合には、Microsoft 365の利用権限も必要です。その場合、&lt;a href="p2.html"&gt;クラスアカウント&lt;/a&gt;で作成してください。</t>
-    <rPh sb="28" eb="30">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メディアセンターのホームページを参照し、クラスアカウントを作成してください
 &lt;a href="https://www.media.hiroshima-u.ac.jp/services/reg/imcaccount-staff/imcaccount-class-guest/"&gt;クラスアカウントの申請方法&lt;/a&gt;</t>
     <rPh sb="16" eb="18">
@@ -553,47 +503,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※普段使っているブラウザですと、Microsoft 365のログイン情報が残っていてログインができない場合があります
-ログインができない場合は、別のブラウザ（Microsoft Edgeを使用している場合は、Firefoxを使用するなど）やシークレットモードを使用してお試しください</t>
-    <rPh sb="1" eb="3">
-      <t>フダン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>タメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;ローカルアカウントの作成&lt;/h3&gt;</t>
     <rPh sb="14" eb="16">
       <t>サクセイ</t>
@@ -676,6 +585,81 @@
   <si>
     <t>「検索」をクリックし、作成したアカウントのメールアドレスや姓名の一部を記入します
 候補が表示されるので、作成したアカウントを選択します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブラウザを起動し、以下の URL にアクセスします
+　https://moodle.vle.hiroshima-u.ac.jp
+※普段使っているブラウザだと、Microsoft 365のログイン情報が残っていてログインができない場合があります
+ログインができない場合は、別のブラウザ（Microsoft Edgeを使用している場合は、Firefoxを使用するなど）やシークレットモードを使用してお試しください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブラウザを起動し、以下の URL にアクセスします
+　https://moodle.vle.hiroshima-u.ac.jp
+※同時に2つのアカウントでmoodleにログインできないため、一度ログアウトするか別のブラウザ（Microsoft Edgeを使用している場合は、Firefoxを使用するなど）やシークレットモードを使用してお試しください</t>
+    <rPh sb="65" eb="67">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>イチド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここでは&lt;u&gt;&lt;b&gt;ローカルアカウント&lt;/b&gt;&lt;/u&gt;を使用する方法を説明します。
+Stream動画の視聴やTeams連携を確認したい場合には、Microsoft 365の利用権限も必要です。その場合、&lt;a href="p2.html"&gt;クラスアカウント&lt;/a&gt;で作成してください。</t>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここでは&lt;u&gt;&lt;b&gt;クラスアカウント&lt;/b&gt;&lt;/u&gt;を使用する方法を説明します。
+Stream動画の視聴やTeams連携を確認したい場合には、Microsoft 365の利用権限が必要です。その場合、クラスアカウントで作成してください。
+Microsoft 365の利用権限が必要ない場合は、自身で手軽に作成できる&lt;a href="p3.html"&gt;ローカルアカウント&lt;/a&gt;をおすすめします。</t>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>テガル</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1205,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFE3EB5-E328-454E-A48E-CF36701523AC}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1483,7 +1467,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -1561,9 +1545,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1DD6A4-06AC-44B0-BEDC-D0D5248AC0DA}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1636,7 +1620,7 @@
     <row r="10" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1651,7 +1635,7 @@
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1659,27 +1643,27 @@
     </row>
     <row r="15" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="21" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -1689,23 +1673,20 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="21" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
       <c r="B23" s="22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
-      <c r="B24" s="22" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
@@ -1715,9 +1696,6 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1730,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE2F81F-39E4-41CF-B8C0-34CAC6EBE269}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD24"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1805,7 +1783,7 @@
     <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -1816,61 +1794,61 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B22" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
@@ -1878,14 +1856,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2" ht="54" x14ac:dyDescent="0.15">
       <c r="B26" s="22" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2522,24 +2500,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2788,6 +2748,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2798,17 +2776,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2827,6 +2794,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
